--- a/500all/speech_level/speeches_CHRG-114hhrg20697.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20697.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order. The subcommittee is meeting today to hear testimony on states' perspectives on the Bureau of Land Management's Draft Planning 2.0 Rule.    Under Committee Rule 4(f), any oral opening statements at a hearing are limited to the Chair and the Ranking Minority Member. Therefore, I ask unanimous consent that all other Members' opening statements be made a part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today. Hearing no objection, so ordered.    I also ask unanimous consent that the gentlelady from Wyoming, Mrs. Lummis--when she comes from a meeting we were having--and the gentleman from Arizona, Dr. Gosar, be allowed to sit in with the subcommittee, since they are part of the Full Committee. Hearing no objections, so ordered.    I will politely ask that everyone in the hearing please silence their cell phones. When I was a judge, we would order them confiscated. I don't do that now, but this will allow for minimum distractions.    I will now recognize myself for 5 minutes for an opening statement.</t>
   </si>
   <si>
@@ -64,45 +61,30 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Mr. Chairman, thank you for your courtesy in accommodating me this morning. In the interest of time, I am going to ask unanimous consent to submit my opening statement for the record and yield back the balance of my time. I apologize to the witnesses that I am going to have to leave, to be blunt, to take my husband to the doctor.    But I will be here for the first round of questions and, as the Chairman knows, will pay attention to all the information we learn today.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Ogsbury</t>
-  </si>
-  <si>
     <t>Washington, DC. Ms. Kathleen Clarke is the Director of the Utah Public Lands Policy Coordinating Office, located in Salt Lake City, Utah.    Under Committee Rules, oral statements must be limited to 5 minutes, but your entire written testimony will be part of the record. When you see the light turn yellow, you know you have 1 minute left. When it turns red, your time has expired, and hopefully you will cease without having to be stopped.    The Chair now recognizes Mr. Ogsbury for your testimony.    Mr. Ogsbury. Thank you, Chairman Gohmert, Ranking Member Dingell, and Chairman Bishop. My name is Jim Ogsbury. I serve as the Executive Director of the Western Governors' Association, an independent, bipartisan association representing 19 western governors and 3 U.S. flag islands.    When it come to the development and administration of Federal public policy, Western Governors are duly concerned and often frustrated when they are regarded or treated as common stakeholders. Governors, the chief executive officers of their states, are much more than that. States are sovereigns. Governors have constitutional responsibilities, delegated authorities, and on-the-ground knowledge about their states' economies, cultures, and environments. Their expertise and perspective should be brought to bear in the design and execution of Federal programs.    The governors are particularly anxious to operate as authentic partners with Federal agencies in the execution of programs that have demonstrable impacts on state authority. States, for example, possess primary police powers to manage most fish and wildlife within their boundaries. Likewise, states have primary authority over the management of water resources within their borders, and they possess plenary authority over groundwater.    Because the management of Federal lands implicates these authorities, and because the Bureau of Land Management owns such vast amounts of land in the West, the governors are deeply invested in the agency's processes for the development of resource management plans. Moreover, the Federal Land Policy and Management Act, FLPMA, recognizes this investment and mandates a substantial role for governors in the BLM planning process.    Unfortunately, the proposed Planning 2.0 rule fails to honor the role of governors in this process, and instead diminishes it in significant respects. With respect to states, FLPMA says in relevant part that the Secretary of the Interior shall, ``Coordinate the land use, inventory planning, and management activities of or for such lands with the land use planning and management programs of states. The Secretary shall provide for meaningful public involvement of state officials in the development of land use programs, land use regulations, and land use decisions for public lands. Land use plans of the Secretary under this section shall be consistent with state plans to the maximum extent he finds consistent with Federal law.''    Planning 2.0 changes the existing implementing regulations in ways that diminish gubernatorial authority and influence. Whereas current regulations provide that BLM shall strive for consistency between resource management plans and resource-related policies, programs, plans, and processes of states, the proposed regulation would only consider consistency between RMPs and officially adopted land use plans, substantially narrowing the influence of governors.    Furthermore, the proposal eliminates the existing regulatory directive that BLM accept a governor's recommendation submitted as part of his or her consistency review if they provide for a reasonable balance between the Nation's interest and the state's interest. Under 2.0, the Director is directed to simply consider governors' views. By eliminating the current provision and failing to provide criteria or standards for the review of gubernatorial input, it appears that BLM is investing itself with great, perhaps unfettered, discretion to disregard a governor's recommendations.    Western Governors are concerned about several provisions that shorten timelines for public comment and obviate the need to publish notices in the Federal Register. The agency has suggested the comment periods are appropriately reduced because the proposed rule includes new opportunities for the public to participate early on in the planning process, such as during a new planning assessment phase.    These additional opportunities, however much they may operate to elevate the role of the public and non-governmental organizations in resource planning, do nothing to promote coordination between the states and the agency; rather, governors are treated like any other stakeholder.    Planning 2.0 includes new provisions calling for the use of high-quality information. It is disappointing that the proposal fails to acknowledge the value of state science, data, and analysis, despite the congressional directive for the past 3 years that Federal land management agencies use state information, at least with respect to wildlife data, as a principal basis for land management decisions.    There was little disagreement that the resource management planning process of BLM could be greatly improved. Accordingly, Western Governors are prepared to work with BLM as authentic and invested partners in the development and execution of a planning process that redounds to the benefit of individual states, the American West, and our great Nation. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much. I appreciate that opening statement.    The Chair now recognizes Mr. Fontaine for 5 minutes.</t>
   </si>
   <si>
-    <t>Fontaine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fontaine. Chairman Gohmert, Ranking Member Dingell, and Chairman Bishop, thank you for the opportunity to testify today on BLM's draft Planning 2.0 rule. Nevada has the highest percentage of federally managed public lands of any state, approximately 85 percent, and five of our counties contain over 90 percent of public land. The Bureau of Land Management administers the majority of this public land, 47 million acres.    For good reason, the Federal Land Policy and Management Act requires engagement specifically with local partners in three ways: coordination, consistency review, and meaningful public involvement. Local communities are greatly impacted by the BLM's land use plans and management decisions, and vice versa. Without local partners, the BLM cannot effectively manage their land; and without local engagement from BLM, impacts on local partners cannot be adequately considered and mitigated.    As the Nevada BLM's 1997 vision statement says, the future of Nevada will, in large part, be shaped by the future of public land management.    Commissioner Jim French from Humboldt County, Nevada, testified before this subcommittee and noted three concerns with the draft rule: specifically, that BLM has not provided sufficient time for counties to fully digest and offer comment, that BLM has proposed changes that will diminish the statutory role of local governments and reduce requirements to ensure consistency with local policies, and that BLM seeks to implement a multi-state landscape level of analysis that could diminish the ability to meaningfully assess the local impacts of BLM management decisions.    We share these same concerns. Meaningful public involvement of local government has not occurred in this rulemaking process, and FLPMA distinguishes between the general public, state, and local governments, and also imposes a higher standard on the BLM for involving state and local government. Only a few of our counties have the resources necessary to employ a full-time natural resources coordinator of similar position dedicated to monitoring proposals from BLM, let alone assessing the impacts of sweeping Federal land management actions, like Planning 2.0, at the county level.    That is why meaningful public involvement of local government requires more than public notice and comment. That Nevada is shaped by the future of public land management remains true today, and that is why we have such a strong interest in Planning 2.0.    Nevada's counties perform important sovereign responsibilities and provide fundamental services, such as planning and zoning, public health and safety, and emergency response. They also have an important role in maintaining local economies. Nevada experienced an unprecedented economic distress during the great recession, but is again a growing state with a diversifying economy, including renewable energy and other sectors that rely on BLM land.    Counties need to effectively participate in BLM land use planning to promote continued prosperity while protecting public lands for future generations. Unfortunately, counties with the most public lands are also those with the least capacity to engage in BLM land use planning because of their limited staffing and resources. For this reason, proactive outreach from BLM to local government is a critical component of meaningful public involvement.    We are concerned that the BLM has proposed changes to current planning rules that will reduce local government's ability to ensure Federal consistency with local master plans and policies. FLPMA requires consistency review occur at four different stages of the planning process. First it mentions appraisal, then consideration, an attempt to resolve, and, finally, consistency with state and local plans.    Instead, proposed regulations say the BLM will determine whether the county provided officially approved and adopted land-use plans or raise specific inconsistencies with those plans. FLPMA does not limit consistency review to land use plans, nor require any plans to be officially approved or adopted.    Finally, Planning 2.0 proposes to implement a multi-state landscape level of analysis that could diminish the ability of BLM to meaningfully assess the local impacts of management decisions. Landscape-scale economic impact analysis are likely to dwarf local economic costs, which will greatly dilute the overall cost in the cost-benefit analysis, even where the cost to a local economy might never be recovered. This creates a bias and unjustly eliminates BLM's requirement to resolve possible economic impacts to local governments.    A landscape-scale approach that does not involve local officials would require state and local governments to spend more time and taxpayer dollars building relationships at higher levels, and local relationships that have been built over years of close collaboration would be de-emphasized.    On May 25, the Nevada Association of Counties (NACO) submitted to the BLM annotated comments and revisions which were carefully drafted with a coalition of local and state governments. Together, we have developed language that we believe helps to achieve BLM's stated goals in Planning 2.0 while addressing significant local government concerns, including preserving the elevated role expressly granted to state and local governments under FLPMA.    We continue to encourage BLM to adopt these comments. Thank you again for holding today's hearing. I look forward to answering questions from the committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much.    At this time, Mr. McAfee, you are recognized for 5 minutes. STATEMENT OF CHUCK McAFEE, LANDOWNER AND COMMUNITY VOLUNTEER, </t>
   </si>
   <si>
-    <t>McAfee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McAfee. Mr. Chairman and members of this subcommittee, I appreciate the opportunity to share my thoughts with you. My grandparents and their 1-year-old son, my father, came to Montezuma County in southwest Colorado 100 years ago. They came West because their Nebraska farm dried up. They homesteaded and began farming by hand-grubbing the sagebrush to plant and to harvest crops. They lived in a tent for a couple of years through two winters. They hauled water for themselves and for neighbors. They were tough, hard workers. Dry-land pinto beans and wheat were the crops of the day, and those are important today.    My perspective here is that of a long-time resident, third-generation on the McAfee farm land. BLM is a neighbor. We are governed locally by an elected board of county commissioners. My comments come to you from what I observe, what I know to be true. In this context, I will address two topics: public participation and planning around natural landscape versus political boundaries.    First, I am for as much public involvement as possible, as early as possible, in planning for public lands. I am local, I am concerned, I am thoughtful, and I do my homework. I take the long view. I am a life member of the local chapter of the Rocky Mountain Farmers Union, and we understand the relationships among public lands and agricultural lands. Local people want their voices to be heard. What we think and what we say can be extremely valuable in gaining a broad view from long-term local experience, interests, ideas, and needs for public lands, especially in a place like Montezuma County, where we have a lot of public land.    I don't understand why some county commissioners are so opposed to enabling greater public participation. Under Planning 2.0, they will not give up their participation, their voices and authority will not be diminished. The whole process will be made richer by inclusion of public voices early on. They are elected to represent us, but that does not translate to us giving up the right and responsibility of representing ourselves.    We have perspectives and ideas that are broader and deeper, and sometimes they are too busy jockeying with the BLM about who is in control of our Federal lands to even represent us at all. Recently BLM started a process to discuss whether a master leasing plan would be helpful in our area. Our current resource management plan does not really get into the details of how and when leasing or development happens. Instead of engaging in the discussion, our commissioners spent a long time refusing to even come to the table, questioning BLM's motives and authority. Meanwhile, many of our community members wanted to have this discussion, and wished that our commissioners would stop obstructing it.    BLM should take the lead in getting through the rhetoric and getting on with dealing effectively with issues through a thoughtful, transparent collaboration. I know that it can work, and that giving the public more input will only make it better.    Next, to planning around natural landscape versus political boundaries. In my view, this is so simple. The natural landscape and resources got here first. Political lines came later, and generally were not established with natural boundaries in mind. It is obvious when you think of watersheds, for example. Those responsible for managing natural resources need to have the latitude, and be held accountable for planning for the whole picture, the natural picture. In this way, the interests of local farmers and ranchers and others who depend on these resources will be taken seriously. This is part of the reform that BLM was proposing, and local government will continue to have a strong voice in this common-sense way of managing land.    BLM's proposal seeks to provide more and earlier opportunities for input. This makes sense to me for counties, states, tribes, and even folks like me. We care about the land, and we want to have a voice in how it is run. Your Web page says, ``Empowering people through our Nation's resources.'' What better way to empower us than to listen to us as plans are developed early on? It is about participation, collaboration, and transparency. Thank you for listening.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much. I appreciate your testimony, Mr. McAfee.    At this time, the Chair recognizes Mr. Lyons for 5 minutes.</t>
   </si>
   <si>
-    <t>Lyons</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lyons. Chairman Bishop, Chairman Gohmert, and Ranking Member Dingell, I appreciate this opportunity to appear before you today to discuss BLM's proposed amendments to its planning rules.    As you know, FLPMA was enacted into law about 40 years ago. The framework for developing and amending BLM's land resource management plans has changed little in the past three decades and, in fact, has only been revised slightly. Yet much has changed in the past 40 years with regard to management and the use of the public lands.    New uses, such as renewable energy production, are a part of an expanding variety of public land uses. Conflicts between users and uses of public lands are increasing, as pressures mount on rural communities to try to maintain their economic flow, meet the needs for their economies, and, at the same time, address the expanding interests of others.    Factors affecting the use and management of the public lands are going beyond traditional planning boundaries, resulting in impacts on, as Mr. McAfee said, watersheds, landscapes, and regions. I think there are plenty of examples of that today, dealing with fire, invasive species, water supplies, and wildlife habitat.    The current planning framework has been the source of frustration for many people, from community leaders, to public land users, to other stakeholders and, in fact, the planners themselves. The Bureau has heard many complaints about the planning process from many of these and, in fact, in 2011 initiated an internal effort to review the planning process. At that point in time, they recommended the need for change in the process.    The complaints, again, were many. The process takes too long, it is not transparent, opportunities for input are few, and final plans, in the end, do not meet our needs. For these reasons and for others, the BLM has proposed new rules for public land use planning that have been in development for a number of years. These proposed rules are really built on the foundation of the current planning process, but they represent a sincere and serious effort to try to address the many concerns and complaints that have been raised by a wide range of stakeholders with regard to BLM planning process.    The proposed rules provide for some important improvements in the planning process, and I will just highlight a few.    First and foremost, the planning rules seek to provide additional opportunities for input earlier in the planning process. Through the establishment of an assessment requirement, actually, before formal planning begins, the opportunity exists for everyone to provide input into the process, to share data, information, ideas, ways to identify and deal with conflicts, and potential areas of agreement as a foundation for planning.    In essence, the purpose of the assessment is to provide a common baseline to share information and have everyone bring their views, perspectives, and resource information to the table. I would suggest that that in particular can be a significant benefit to local communities and counties who may not have the resources to do their own assessments, but can, in fact, benefit from those assessment reports that are prepared before the formal planning process begins.    Second, resource management issues are not conveniently limited to traditional planning boundaries. Unfortunately, under current rules, no matter how expansive the concern or the particular need, we are required to do plans within the existing planning boundaries. So, when a wildfire crosses state lines, we have to develop plans that fit those particular circumstances in the current planning process.    Under the proposed rule, the planning boundaries can be adjusted to the scale necessary to deal with the issues of concern. This can increase efficiency and effectiveness. It does not, in any way, negate the importance of local input and the value of that stakeholder, coordinator, and cooperator involvement. Nevertheless, it can help us do things in a more efficient and effective way. The same data analysis can help inform the planning process and all participants in moving forward, but dealing with the issue at the appropriate scale, in an appropriate manner, and hopefully in a much more efficient and effective way.    Third, the proposed planning rule process actually reaffirms the unique role the cooperators play in working with the Bureau and helping with the development of land use plans. Cooperators can work with planners throughout the process and, similar to the current process for the engagement of cooperators, they become a part of the planning team from the very outset. In fact, many of our people talked about providing desk space and a chair for representatives who are cooperators from local and state government. So, cooperators' opportunities are not negated in any way. In fact, we think they are enhanced through this more open and earlier planning process.    Now, unfortunately, there is a great deal of misinformation and, I think, misunderstanding out there with regard to the Planning 2.0 effort and the BLM's proposed planning rule. We certainly look forward, Mr. Chairman, to working with all those who depend upon the public lands or have an interest in their lands, to try to address these concerns and put together a final rule that we think will help improve the planning and management of our public lands. Thank you.</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. I believe, during this early public assessment phase, state and local governments can participate, should they choose, but their voice will be marginalized. They have a right to sit as an elevated partner because they are sovereigns, and they should not be relegated to sharing a position among the crowd.    Elected officials do represent the majority of the voices of those elected, although they may not represent the voices of the loudest, most well-funded special interest groups. I believe that this is stepping aside from the law, and it is not the first time we have seen the Administration take such a step.    The Chairman. Thank you, I appreciate that. It is troubling for me. The Federal Government does own--I actually can't see how much time I have, so when I am close to it, hit me or something, will you?    The Federal Government owns a third of all America, we know that. About 45 percent is BLM property. The sad part is almost none of that is east of Denver; it is all west of Denver. That means, even though the votes in Congress are east of Denver, everyone here east of Denver thinks public lands are all national parks, when we know the bulk of it is BLM property, and it is for those of us who actually have the fortunate opportunity of living in the West.    What that simply means is, sometimes ideas can gain support when they actually do hurt people in the process. I think those of us here in the West have a specific interest, and that is why I appreciate the first two witnesses who represent the governors and commissioners who have concerns about what will actually happen in the West, even though we do not have the numerical majority here.    And, it is the same thing here. Mr. McAfee, you talked about the commissioners in your area. I am assuming they were voted by the people.</t>
   </si>
   <si>
@@ -202,9 +181,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. I would like to thank the subcommittee for holding this hearing today.    BLM's draft Planning 2.0 rule, if finalized, will have major impacts on states with BLM land. In my state, BLM manages approximately 12 million acres of land which will be significantly impacted by this rule. Because the impact on Idaho will be so significant, I am very concerned that this draft rule marginalizes the role that state and local governments will play in the BLM planning process, and ignores BLM statutory obligation to coordinate with state and local governments, and to provide for meaningful public involvement of state and local government officials.    I would like to ask unanimous consent first that a letter that Governor Otter sent to the members of Idaho's congressional delegation, as well as the state's comments to BLM be included in the record.</t>
   </si>
   <si>
@@ -245,9 +221,6 @@
   </si>
   <si>
     <t>412610</t>
-  </si>
-  <si>
-    <t>Bruce Westerman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman. I thank the witnesses for being here today. One of the most significant changes under Planning 2.0 would be moving to the implementation of a landscape-level management of resources. I don't want to knock the landscape-level process, because it is used by large private landowners and you can look at individual management of stands and then the conglomeration into the landscape. So, the science of that I don't necessarily disagree with, but we have to make sure that the process is still followed and that you still have the state and local-level input into that process, so that all the views are being represented and that we are not shifting power away from the local communities.    Mr. Fontaine, are you concerned that this change will centralize management planning in DC, rather than at the state and local level? Do you feel like state and local authorities will still have a role in this?</t>
@@ -859,11 +832,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -885,11 +856,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -935,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -963,11 +928,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -987,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1015,11 +976,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1039,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1067,11 +1024,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1091,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1119,11 +1072,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1145,11 +1096,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1169,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1197,11 +1144,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1221,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1247,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1273,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1299,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1325,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1351,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1377,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1403,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1431,11 +1360,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1455,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1483,11 +1408,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1507,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1533,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1559,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1585,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1611,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1637,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1665,11 +1576,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1691,11 +1600,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1715,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1743,11 +1648,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1767,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1795,11 +1696,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1819,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1847,11 +1744,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1871,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1899,11 +1792,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1923,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1949,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1975,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2001,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2027,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2053,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
         <v>62</v>
-      </c>
-      <c r="H48" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2079,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2105,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2131,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2157,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2185,11 +2056,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2209,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2235,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2261,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2287,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2313,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2339,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2365,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2391,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2417,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2443,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2471,11 +2320,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2495,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2521,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2547,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2573,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2599,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2625,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2651,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2677,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2703,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2729,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2755,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2781,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2807,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2835,11 +2656,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2859,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2887,11 +2704,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2911,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2939,11 +2752,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2963,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2991,11 +2800,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3015,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3043,11 +2848,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3067,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
-      </c>
-      <c r="G87" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3093,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
-      </c>
-      <c r="G88" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3119,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3145,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
-      </c>
-      <c r="G90" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3171,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
-      </c>
-      <c r="G91" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3197,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3223,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3249,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3275,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
-      </c>
-      <c r="G95" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3301,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3327,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
-      </c>
-      <c r="G97" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3353,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3379,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
-      </c>
-      <c r="G99" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3405,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3431,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
-      </c>
-      <c r="G101" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3457,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3483,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
-      </c>
-      <c r="G103" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3509,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3535,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
-      </c>
-      <c r="G105" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3561,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3587,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
-      </c>
-      <c r="G107" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3613,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3639,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
-      </c>
-      <c r="G109" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3665,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3691,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
-      </c>
-      <c r="G111" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3717,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3743,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
-      </c>
-      <c r="G113" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3769,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3795,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
-      </c>
-      <c r="G115" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3821,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3847,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
-      </c>
-      <c r="G117" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3875,11 +3616,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3899,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>76</v>
-      </c>
-      <c r="G119" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3925,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3951,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
-      </c>
-      <c r="G121" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3977,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4003,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>76</v>
-      </c>
-      <c r="G123" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4031,11 +3760,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20697.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20697.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order. The subcommittee is meeting today to hear testimony on states' perspectives on the Bureau of Land Management's Draft Planning 2.0 Rule.    Under Committee Rule 4(f), any oral opening statements at a hearing are limited to the Chair and the Ranking Minority Member. Therefore, I ask unanimous consent that all other Members' opening statements be made a part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today. Hearing no objection, so ordered.    I also ask unanimous consent that the gentlelady from Wyoming, Mrs. Lummis--when she comes from a meeting we were having--and the gentleman from Arizona, Dr. Gosar, be allowed to sit in with the subcommittee, since they are part of the Full Committee. Hearing no objections, so ordered.    I will politely ask that everyone in the hearing please silence their cell phones. When I was a judge, we would order them confiscated. I don't do that now, but this will allow for minimum distractions.    I will now recognize myself for 5 minutes for an opening statement.</t>
   </si>
   <si>
@@ -61,30 +70,48 @@
     <t>412637</t>
   </si>
   <si>
+    <t>Dingell</t>
+  </si>
+  <si>
+    <t>Debbie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Dingell. Mr. Chairman, thank you for your courtesy in accommodating me this morning. In the interest of time, I am going to ask unanimous consent to submit my opening statement for the record and yield back the balance of my time. I apologize to the witnesses that I am going to have to leave, to be blunt, to take my husband to the doctor.    But I will be here for the first round of questions and, as the Chairman knows, will pay attention to all the information we learn today.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Ogsbury</t>
+  </si>
+  <si>
     <t>Washington, DC. Ms. Kathleen Clarke is the Director of the Utah Public Lands Policy Coordinating Office, located in Salt Lake City, Utah.    Under Committee Rules, oral statements must be limited to 5 minutes, but your entire written testimony will be part of the record. When you see the light turn yellow, you know you have 1 minute left. When it turns red, your time has expired, and hopefully you will cease without having to be stopped.    The Chair now recognizes Mr. Ogsbury for your testimony.    Mr. Ogsbury. Thank you, Chairman Gohmert, Ranking Member Dingell, and Chairman Bishop. My name is Jim Ogsbury. I serve as the Executive Director of the Western Governors' Association, an independent, bipartisan association representing 19 western governors and 3 U.S. flag islands.    When it come to the development and administration of Federal public policy, Western Governors are duly concerned and often frustrated when they are regarded or treated as common stakeholders. Governors, the chief executive officers of their states, are much more than that. States are sovereigns. Governors have constitutional responsibilities, delegated authorities, and on-the-ground knowledge about their states' economies, cultures, and environments. Their expertise and perspective should be brought to bear in the design and execution of Federal programs.    The governors are particularly anxious to operate as authentic partners with Federal agencies in the execution of programs that have demonstrable impacts on state authority. States, for example, possess primary police powers to manage most fish and wildlife within their boundaries. Likewise, states have primary authority over the management of water resources within their borders, and they possess plenary authority over groundwater.    Because the management of Federal lands implicates these authorities, and because the Bureau of Land Management owns such vast amounts of land in the West, the governors are deeply invested in the agency's processes for the development of resource management plans. Moreover, the Federal Land Policy and Management Act, FLPMA, recognizes this investment and mandates a substantial role for governors in the BLM planning process.    Unfortunately, the proposed Planning 2.0 rule fails to honor the role of governors in this process, and instead diminishes it in significant respects. With respect to states, FLPMA says in relevant part that the Secretary of the Interior shall, ``Coordinate the land use, inventory planning, and management activities of or for such lands with the land use planning and management programs of states. The Secretary shall provide for meaningful public involvement of state officials in the development of land use programs, land use regulations, and land use decisions for public lands. Land use plans of the Secretary under this section shall be consistent with state plans to the maximum extent he finds consistent with Federal law.''    Planning 2.0 changes the existing implementing regulations in ways that diminish gubernatorial authority and influence. Whereas current regulations provide that BLM shall strive for consistency between resource management plans and resource-related policies, programs, plans, and processes of states, the proposed regulation would only consider consistency between RMPs and officially adopted land use plans, substantially narrowing the influence of governors.    Furthermore, the proposal eliminates the existing regulatory directive that BLM accept a governor's recommendation submitted as part of his or her consistency review if they provide for a reasonable balance between the Nation's interest and the state's interest. Under 2.0, the Director is directed to simply consider governors' views. By eliminating the current provision and failing to provide criteria or standards for the review of gubernatorial input, it appears that BLM is investing itself with great, perhaps unfettered, discretion to disregard a governor's recommendations.    Western Governors are concerned about several provisions that shorten timelines for public comment and obviate the need to publish notices in the Federal Register. The agency has suggested the comment periods are appropriately reduced because the proposed rule includes new opportunities for the public to participate early on in the planning process, such as during a new planning assessment phase.    These additional opportunities, however much they may operate to elevate the role of the public and non-governmental organizations in resource planning, do nothing to promote coordination between the states and the agency; rather, governors are treated like any other stakeholder.    Planning 2.0 includes new provisions calling for the use of high-quality information. It is disappointing that the proposal fails to acknowledge the value of state science, data, and analysis, despite the congressional directive for the past 3 years that Federal land management agencies use state information, at least with respect to wildlife data, as a principal basis for land management decisions.    There was little disagreement that the resource management planning process of BLM could be greatly improved. Accordingly, Western Governors are prepared to work with BLM as authentic and invested partners in the development and execution of a planning process that redounds to the benefit of individual states, the American West, and our great Nation. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much. I appreciate that opening statement.    The Chair now recognizes Mr. Fontaine for 5 minutes.</t>
   </si>
   <si>
+    <t>Fontaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fontaine. Chairman Gohmert, Ranking Member Dingell, and Chairman Bishop, thank you for the opportunity to testify today on BLM's draft Planning 2.0 rule. Nevada has the highest percentage of federally managed public lands of any state, approximately 85 percent, and five of our counties contain over 90 percent of public land. The Bureau of Land Management administers the majority of this public land, 47 million acres.    For good reason, the Federal Land Policy and Management Act requires engagement specifically with local partners in three ways: coordination, consistency review, and meaningful public involvement. Local communities are greatly impacted by the BLM's land use plans and management decisions, and vice versa. Without local partners, the BLM cannot effectively manage their land; and without local engagement from BLM, impacts on local partners cannot be adequately considered and mitigated.    As the Nevada BLM's 1997 vision statement says, the future of Nevada will, in large part, be shaped by the future of public land management.    Commissioner Jim French from Humboldt County, Nevada, testified before this subcommittee and noted three concerns with the draft rule: specifically, that BLM has not provided sufficient time for counties to fully digest and offer comment, that BLM has proposed changes that will diminish the statutory role of local governments and reduce requirements to ensure consistency with local policies, and that BLM seeks to implement a multi-state landscape level of analysis that could diminish the ability to meaningfully assess the local impacts of BLM management decisions.    We share these same concerns. Meaningful public involvement of local government has not occurred in this rulemaking process, and FLPMA distinguishes between the general public, state, and local governments, and also imposes a higher standard on the BLM for involving state and local government. Only a few of our counties have the resources necessary to employ a full-time natural resources coordinator of similar position dedicated to monitoring proposals from BLM, let alone assessing the impacts of sweeping Federal land management actions, like Planning 2.0, at the county level.    That is why meaningful public involvement of local government requires more than public notice and comment. That Nevada is shaped by the future of public land management remains true today, and that is why we have such a strong interest in Planning 2.0.    Nevada's counties perform important sovereign responsibilities and provide fundamental services, such as planning and zoning, public health and safety, and emergency response. They also have an important role in maintaining local economies. Nevada experienced an unprecedented economic distress during the great recession, but is again a growing state with a diversifying economy, including renewable energy and other sectors that rely on BLM land.    Counties need to effectively participate in BLM land use planning to promote continued prosperity while protecting public lands for future generations. Unfortunately, counties with the most public lands are also those with the least capacity to engage in BLM land use planning because of their limited staffing and resources. For this reason, proactive outreach from BLM to local government is a critical component of meaningful public involvement.    We are concerned that the BLM has proposed changes to current planning rules that will reduce local government's ability to ensure Federal consistency with local master plans and policies. FLPMA requires consistency review occur at four different stages of the planning process. First it mentions appraisal, then consideration, an attempt to resolve, and, finally, consistency with state and local plans.    Instead, proposed regulations say the BLM will determine whether the county provided officially approved and adopted land-use plans or raise specific inconsistencies with those plans. FLPMA does not limit consistency review to land use plans, nor require any plans to be officially approved or adopted.    Finally, Planning 2.0 proposes to implement a multi-state landscape level of analysis that could diminish the ability of BLM to meaningfully assess the local impacts of management decisions. Landscape-scale economic impact analysis are likely to dwarf local economic costs, which will greatly dilute the overall cost in the cost-benefit analysis, even where the cost to a local economy might never be recovered. This creates a bias and unjustly eliminates BLM's requirement to resolve possible economic impacts to local governments.    A landscape-scale approach that does not involve local officials would require state and local governments to spend more time and taxpayer dollars building relationships at higher levels, and local relationships that have been built over years of close collaboration would be de-emphasized.    On May 25, the Nevada Association of Counties (NACO) submitted to the BLM annotated comments and revisions which were carefully drafted with a coalition of local and state governments. Together, we have developed language that we believe helps to achieve BLM's stated goals in Planning 2.0 while addressing significant local government concerns, including preserving the elevated role expressly granted to state and local governments under FLPMA.    We continue to encourage BLM to adopt these comments. Thank you again for holding today's hearing. I look forward to answering questions from the committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much.    At this time, Mr. McAfee, you are recognized for 5 minutes. STATEMENT OF CHUCK McAFEE, LANDOWNER AND COMMUNITY VOLUNTEER, </t>
   </si>
   <si>
+    <t>McAfee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McAfee. Mr. Chairman and members of this subcommittee, I appreciate the opportunity to share my thoughts with you. My grandparents and their 1-year-old son, my father, came to Montezuma County in southwest Colorado 100 years ago. They came West because their Nebraska farm dried up. They homesteaded and began farming by hand-grubbing the sagebrush to plant and to harvest crops. They lived in a tent for a couple of years through two winters. They hauled water for themselves and for neighbors. They were tough, hard workers. Dry-land pinto beans and wheat were the crops of the day, and those are important today.    My perspective here is that of a long-time resident, third-generation on the McAfee farm land. BLM is a neighbor. We are governed locally by an elected board of county commissioners. My comments come to you from what I observe, what I know to be true. In this context, I will address two topics: public participation and planning around natural landscape versus political boundaries.    First, I am for as much public involvement as possible, as early as possible, in planning for public lands. I am local, I am concerned, I am thoughtful, and I do my homework. I take the long view. I am a life member of the local chapter of the Rocky Mountain Farmers Union, and we understand the relationships among public lands and agricultural lands. Local people want their voices to be heard. What we think and what we say can be extremely valuable in gaining a broad view from long-term local experience, interests, ideas, and needs for public lands, especially in a place like Montezuma County, where we have a lot of public land.    I don't understand why some county commissioners are so opposed to enabling greater public participation. Under Planning 2.0, they will not give up their participation, their voices and authority will not be diminished. The whole process will be made richer by inclusion of public voices early on. They are elected to represent us, but that does not translate to us giving up the right and responsibility of representing ourselves.    We have perspectives and ideas that are broader and deeper, and sometimes they are too busy jockeying with the BLM about who is in control of our Federal lands to even represent us at all. Recently BLM started a process to discuss whether a master leasing plan would be helpful in our area. Our current resource management plan does not really get into the details of how and when leasing or development happens. Instead of engaging in the discussion, our commissioners spent a long time refusing to even come to the table, questioning BLM's motives and authority. Meanwhile, many of our community members wanted to have this discussion, and wished that our commissioners would stop obstructing it.    BLM should take the lead in getting through the rhetoric and getting on with dealing effectively with issues through a thoughtful, transparent collaboration. I know that it can work, and that giving the public more input will only make it better.    Next, to planning around natural landscape versus political boundaries. In my view, this is so simple. The natural landscape and resources got here first. Political lines came later, and generally were not established with natural boundaries in mind. It is obvious when you think of watersheds, for example. Those responsible for managing natural resources need to have the latitude, and be held accountable for planning for the whole picture, the natural picture. In this way, the interests of local farmers and ranchers and others who depend on these resources will be taken seriously. This is part of the reform that BLM was proposing, and local government will continue to have a strong voice in this common-sense way of managing land.    BLM's proposal seeks to provide more and earlier opportunities for input. This makes sense to me for counties, states, tribes, and even folks like me. We care about the land, and we want to have a voice in how it is run. Your Web page says, ``Empowering people through our Nation's resources.'' What better way to empower us than to listen to us as plans are developed early on? It is about participation, collaboration, and transparency. Thank you for listening.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much. I appreciate your testimony, Mr. McAfee.    At this time, the Chair recognizes Mr. Lyons for 5 minutes.</t>
   </si>
   <si>
+    <t>Lyons</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lyons. Chairman Bishop, Chairman Gohmert, and Ranking Member Dingell, I appreciate this opportunity to appear before you today to discuss BLM's proposed amendments to its planning rules.    As you know, FLPMA was enacted into law about 40 years ago. The framework for developing and amending BLM's land resource management plans has changed little in the past three decades and, in fact, has only been revised slightly. Yet much has changed in the past 40 years with regard to management and the use of the public lands.    New uses, such as renewable energy production, are a part of an expanding variety of public land uses. Conflicts between users and uses of public lands are increasing, as pressures mount on rural communities to try to maintain their economic flow, meet the needs for their economies, and, at the same time, address the expanding interests of others.    Factors affecting the use and management of the public lands are going beyond traditional planning boundaries, resulting in impacts on, as Mr. McAfee said, watersheds, landscapes, and regions. I think there are plenty of examples of that today, dealing with fire, invasive species, water supplies, and wildlife habitat.    The current planning framework has been the source of frustration for many people, from community leaders, to public land users, to other stakeholders and, in fact, the planners themselves. The Bureau has heard many complaints about the planning process from many of these and, in fact, in 2011 initiated an internal effort to review the planning process. At that point in time, they recommended the need for change in the process.    The complaints, again, were many. The process takes too long, it is not transparent, opportunities for input are few, and final plans, in the end, do not meet our needs. For these reasons and for others, the BLM has proposed new rules for public land use planning that have been in development for a number of years. These proposed rules are really built on the foundation of the current planning process, but they represent a sincere and serious effort to try to address the many concerns and complaints that have been raised by a wide range of stakeholders with regard to BLM planning process.    The proposed rules provide for some important improvements in the planning process, and I will just highlight a few.    First and foremost, the planning rules seek to provide additional opportunities for input earlier in the planning process. Through the establishment of an assessment requirement, actually, before formal planning begins, the opportunity exists for everyone to provide input into the process, to share data, information, ideas, ways to identify and deal with conflicts, and potential areas of agreement as a foundation for planning.    In essence, the purpose of the assessment is to provide a common baseline to share information and have everyone bring their views, perspectives, and resource information to the table. I would suggest that that in particular can be a significant benefit to local communities and counties who may not have the resources to do their own assessments, but can, in fact, benefit from those assessment reports that are prepared before the formal planning process begins.    Second, resource management issues are not conveniently limited to traditional planning boundaries. Unfortunately, under current rules, no matter how expansive the concern or the particular need, we are required to do plans within the existing planning boundaries. So, when a wildfire crosses state lines, we have to develop plans that fit those particular circumstances in the current planning process.    Under the proposed rule, the planning boundaries can be adjusted to the scale necessary to deal with the issues of concern. This can increase efficiency and effectiveness. It does not, in any way, negate the importance of local input and the value of that stakeholder, coordinator, and cooperator involvement. Nevertheless, it can help us do things in a more efficient and effective way. The same data analysis can help inform the planning process and all participants in moving forward, but dealing with the issue at the appropriate scale, in an appropriate manner, and hopefully in a much more efficient and effective way.    Third, the proposed planning rule process actually reaffirms the unique role the cooperators play in working with the Bureau and helping with the development of land use plans. Cooperators can work with planners throughout the process and, similar to the current process for the engagement of cooperators, they become a part of the planning team from the very outset. In fact, many of our people talked about providing desk space and a chair for representatives who are cooperators from local and state government. So, cooperators' opportunities are not negated in any way. In fact, we think they are enhanced through this more open and earlier planning process.    Now, unfortunately, there is a great deal of misinformation and, I think, misunderstanding out there with regard to the Planning 2.0 effort and the BLM's proposed planning rule. We certainly look forward, Mr. Chairman, to working with all those who depend upon the public lands or have an interest in their lands, to try to address these concerns and put together a final rule that we think will help improve the planning and management of our public lands. Thank you.</t>
   </si>
   <si>
@@ -136,6 +163,12 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clarke. I believe, during this early public assessment phase, state and local governments can participate, should they choose, but their voice will be marginalized. They have a right to sit as an elevated partner because they are sovereigns, and they should not be relegated to sharing a position among the crowd.    Elected officials do represent the majority of the voices of those elected, although they may not represent the voices of the loudest, most well-funded special interest groups. I believe that this is stepping aside from the law, and it is not the first time we have seen the Administration take such a step.    The Chairman. Thank you, I appreciate that. It is troubling for me. The Federal Government does own--I actually can't see how much time I have, so when I am close to it, hit me or something, will you?    The Federal Government owns a third of all America, we know that. About 45 percent is BLM property. The sad part is almost none of that is east of Denver; it is all west of Denver. That means, even though the votes in Congress are east of Denver, everyone here east of Denver thinks public lands are all national parks, when we know the bulk of it is BLM property, and it is for those of us who actually have the fortunate opportunity of living in the West.    What that simply means is, sometimes ideas can gain support when they actually do hurt people in the process. I think those of us here in the West have a specific interest, and that is why I appreciate the first two witnesses who represent the governors and commissioners who have concerns about what will actually happen in the West, even though we do not have the numerical majority here.    And, it is the same thing here. Mr. McAfee, you talked about the commissioners in your area. I am assuming they were voted by the people.</t>
   </si>
   <si>
@@ -181,6 +214,12 @@
     <t>412419</t>
   </si>
   <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. I would like to thank the subcommittee for holding this hearing today.    BLM's draft Planning 2.0 rule, if finalized, will have major impacts on states with BLM land. In my state, BLM manages approximately 12 million acres of land which will be significantly impacted by this rule. Because the impact on Idaho will be so significant, I am very concerned that this draft rule marginalizes the role that state and local governments will play in the BLM planning process, and ignores BLM statutory obligation to coordinate with state and local governments, and to provide for meaningful public involvement of state and local government officials.    I would like to ask unanimous consent first that a letter that Governor Otter sent to the members of Idaho's congressional delegation, as well as the state's comments to BLM be included in the record.</t>
   </si>
   <si>
@@ -221,6 +260,12 @@
   </si>
   <si>
     <t>412610</t>
+  </si>
+  <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman. I thank the witnesses for being here today. One of the most significant changes under Planning 2.0 would be moving to the implementation of a landscape-level management of resources. I don't want to knock the landscape-level process, because it is used by large private landowners and you can look at individual management of stands and then the conglomeration into the landscape. So, the science of that I don't necessarily disagree with, but we have to make sure that the process is still followed and that you still have the state and local-level input into that process, so that all the views are being represented and that we are not shifting power away from the local communities.    Mr. Fontaine, are you concerned that this change will centralize management planning in DC, rather than at the state and local level? Do you feel like state and local authorities will still have a role in this?</t>
@@ -782,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +835,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,2957 +857,3465 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G61" t="s">
+        <v>49</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G75" t="s">
+        <v>49</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>54</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G87" t="s">
+        <v>66</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G88" t="s">
+        <v>49</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>54</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G89" t="s">
+        <v>66</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>49</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>54</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G91" t="s">
+        <v>66</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>66</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G95" t="s">
+        <v>66</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G97" t="s">
+        <v>66</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G99" t="s">
+        <v>66</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>54</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G101" t="s">
+        <v>66</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>54</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G103" t="s">
+        <v>66</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G107" t="s">
+        <v>66</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>54</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G109" t="s">
+        <v>66</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>54</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>66</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G113" t="s">
+        <v>66</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G115" t="s">
+        <v>66</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>54</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G117" t="s">
+        <v>66</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G121" t="s">
+        <v>82</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G123" t="s">
+        <v>82</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20697.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20697.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gohmert</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412637</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Dingell</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
   </si>
   <si>
     <t>412221</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Clarke</t>
@@ -827,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +847,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,3462 +872,3724 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G87" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G89" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G91" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G93" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G95" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G97" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H97" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G101" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H101" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G103" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G105" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H105" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G107" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H107" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G109" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G111" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H111" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G113" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H113" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G115" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H115" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>34</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G117" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H117" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G119" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H119" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H121" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H123" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>154</v>
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
